--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042155.303883632</v>
+        <v>1063308.97684892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>189902.9539564206</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>85.22511954124835</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>327.6735853941358</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250708</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>118.9621335895197</v>
+        <v>155.3197306044662</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>168.9759635025638</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>146.4340874029164</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>111.9273983130129</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>113.8663651854585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.49690079789888</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>130.9059496574381</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.37086888118499</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.801690848279645</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>162.4608466928088</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>35.91413898973433</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.31785343913975</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2321,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>321.7064610691122</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.219802131625</v>
       </c>
       <c r="H28" t="n">
-        <v>43.99240337009277</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>269.513456948084</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.7177065691262</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>275.4805812731078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>68.11319564821149</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>122.3623168480189</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>126.8511502120405</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>43.826421141725</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>225.4603876057575</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.40419526769212</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.440065804380656</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>123.549265028247</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>67.18727388102259</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>155.7603343833872</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.960741127172</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.960741127172</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="D2" t="n">
-        <v>857.6950425204218</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>620.6896571238663</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>620.6896571238663</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598975</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.165671428186</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.699913167106</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.560581191294</v>
+        <v>1364.743608328861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747038</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692483</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423994</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673413</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="D4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="E4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="F4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="G4" t="n">
         <v>393.6767897220518</v>
@@ -4483,55 +4483,55 @@
         <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942398</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2526.466299601491</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2307.831632573554</v>
       </c>
       <c r="U5" t="n">
-        <v>2494.20718194981</v>
+        <v>2054.069847211645</v>
       </c>
       <c r="V5" t="n">
-        <v>2494.20718194981</v>
+        <v>1723.006959868074</v>
       </c>
       <c r="W5" t="n">
-        <v>2494.20718194981</v>
+        <v>1370.23830459796</v>
       </c>
       <c r="X5" t="n">
-        <v>2494.20718194981</v>
+        <v>1370.23830459796</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.20718194981</v>
+        <v>1370.23830459796</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036444</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2584.09111292427</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2330.329327562361</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1999.266440218791</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.497784948677</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="X8" t="n">
-        <v>1273.032026687597</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y8" t="n">
-        <v>882.8926947117852</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>940.9219833362306</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>571.9594663958189</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>571.9594663958189</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>186.1712137975747</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>186.1712137975747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>186.1712137975747</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5072,19 +5072,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573122</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X11" t="n">
-        <v>1331.061315312042</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y11" t="n">
-        <v>940.9219833362306</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>81.59032412459172</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5221,28 +5221,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2694.319100262384</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2694.319100262384</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2694.319100262384</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2694.319100262384</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2694.319100262384</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2341.55044499227</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>1968.08468673119</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1577.945354755378</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1331.061315312042</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>962.0987983716307</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>603.8330997648802</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>218.044847166636</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F17" t="n">
-        <v>218.044847166636</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5522,7 +5522,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N17" t="n">
         <v>1836.345445977174</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1331.061315312042</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1331.061315312042</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,25 +5774,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y20" t="n">
         <v>1878.515311311824</v>
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.69838933464703</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C22" t="n">
-        <v>97.69838933464703</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D22" t="n">
-        <v>97.69838933464703</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E22" t="n">
-        <v>97.69838933464703</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F22" t="n">
-        <v>97.69838933464703</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5932,28 +5932,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X22" t="n">
-        <v>500.1394333084169</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y22" t="n">
-        <v>279.3468541648867</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>764.6872557005402</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>378.8990031022959</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>378.8990031022959</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5990,10 +5990,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="U25" t="n">
-        <v>2407.975480672791</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="V25" t="n">
-        <v>2153.290992466904</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>699.7439769897445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755379</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.37975290126624</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C28" t="n">
-        <v>98.37975290126624</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="D28" t="n">
-        <v>98.37975290126624</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="E28" t="n">
-        <v>98.37975290126624</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="F28" t="n">
-        <v>98.37975290126624</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="G28" t="n">
-        <v>98.37975290126624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V28" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W28" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X28" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.0282177315059</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
         <v>1122.952954307291</v>
@@ -6446,28 +6446,28 @@
         <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090468</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194392</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,10 +6479,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6561,28 +6561,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>169.4004218733296</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>404.5912469122717</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>1546.944160717209</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,13 +6774,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6789,7 +6789,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6798,22 +6798,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2425.404132605923</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>2425.404132605923</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="U34" t="n">
-        <v>2425.404132605923</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="V34" t="n">
-        <v>2425.404132605923</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="W34" t="n">
-        <v>2425.404132605923</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X34" t="n">
-        <v>2425.404132605923</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.611553462393</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2321.817091410283</v>
       </c>
       <c r="W35" t="n">
-        <v>2414.382636290375</v>
+        <v>1969.048436140168</v>
       </c>
       <c r="X35" t="n">
-        <v>2414.382636290375</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.243304314563</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7123,22 +7123,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.831893336434</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>892.8693763960225</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859356</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>1309.714918859356</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7363,19 +7363,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.886095354873</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.746763379062</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7500,13 +7500,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>121.8089150335186</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610023</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551154</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7679,19 +7679,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>211.276652914695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>211.276652914695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>211.276652914695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U46" t="n">
-        <v>579.9823256406182</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V46" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747081</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415605</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>328.5590504795466</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>21.56738332327723</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>48.3476686695312</v>
+        <v>11.99007165458474</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22790,16 +22790,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,22 +22829,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>5.439749306407748</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>104.7900801053729</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22939,31 +22939,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,13 +22984,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>110.3648512204699</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,25 +23066,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>104.5209220446449</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>213.8858932846764</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.9370618486703</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23194,13 +23194,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,25 +23221,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193.016823106919</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>87.32913021289923</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.82909030735202</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23458,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>168.53933734988</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.67671172653205</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,10 +23555,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>83.71149628510288</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>251.3233233279862</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,19 +23786,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>131.3956632693166</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23938,13 +23938,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9919488199112</v>
+        <v>83.71149628510287</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,16 +24209,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>92.07770895168284</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24406,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>118.5640348356351</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>59.09000012742595</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1784854717024</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>144.270713072711</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,13 +24853,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>41.86802318935965</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>44.94748541103168</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24917,10 +24917,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>79.2024603475752</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>301.6179050302575</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>89.78322210199998</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>98.18395524604378</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>10.65198143308672</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25211,16 +25211,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>123.7805811116555</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,10 +25363,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>69.58249272689014</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.3296463957885</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>92.89905532941077</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>88.98361496077256</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25919,7 +25919,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>30.22198880999284</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,13 +26038,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4105544584079439</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26065,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="C2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>303610.2405165456</v>
-      </c>
-      <c r="D2" t="n">
-        <v>303610.2405165453</v>
-      </c>
-      <c r="E2" t="n">
-        <v>303610.2405165455</v>
       </c>
       <c r="F2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="I2" t="n">
         <v>303610.2405165454</v>
@@ -26341,10 +26341,10 @@
         <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
@@ -26353,7 +26353,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145442</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26506,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407689.7845651176</v>
+        <v>-405161.4634016749</v>
       </c>
       <c r="C6" t="n">
-        <v>182278.094649427</v>
+        <v>184806.4158128694</v>
       </c>
       <c r="D6" t="n">
-        <v>182278.0946494267</v>
+        <v>184806.4158128692</v>
       </c>
       <c r="E6" t="n">
-        <v>215905.6946494269</v>
+        <v>218434.0158128693</v>
       </c>
       <c r="F6" t="n">
-        <v>215905.6946494269</v>
+        <v>218434.0158128693</v>
       </c>
       <c r="G6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="H6" t="n">
-        <v>215905.6946494267</v>
+        <v>218434.0158128693</v>
       </c>
       <c r="I6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="J6" t="n">
-        <v>39482.47545683388</v>
+        <v>42010.79662027625</v>
       </c>
       <c r="K6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="L6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="M6" t="n">
-        <v>215905.6946494269</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="N6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="O6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="P6" t="n">
-        <v>215905.6946494269</v>
+        <v>218434.0158128691</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
@@ -26802,34 +26802,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="P4" t="n">
-        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,40 +31045,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31285,7 +31285,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,7 +31297,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34699,25 +34699,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35501,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35741,7 +35741,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35890,7 +35890,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
         <v>421.5361394435301</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,10 +36446,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,10 +36683,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,10 +36920,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37157,10 +37157,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,10 +37394,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,13 +37555,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,7 +38108,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107653.707251521</v>
+        <v>1078665.510602064</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.1730751</v>
+        <v>3522967.675855585</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10079185.08320224</v>
+        <v>10485671.71985244</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>174.2425642047091</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>257.0152846411281</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>49.49400974875004</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>54.37924675511485</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>91.42179717797322</v>
+        <v>8.599541510667596</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>371.2739389354045</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.4420262610233</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228945</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>47.92882262104235</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229335</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.1271626621468</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>108.9087281754308</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.4198924122901</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958679</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183532</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>54.03734526223181</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>33.60673282204753</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>179.7188787253433</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>116.1580367970455</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.62058597662759</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>15.02228922158442</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>21.97013147555854</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>155.8385935972322</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0005969012857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>79.71208056177241</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>135.0256963802047</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>6.001675813423877</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>78.74694001459652</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.54139430664139</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>45.88884117514944</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,10 +3957,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>235.2707607354173</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544182</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937431</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.504093339187</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5181885495797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>313.5543804477666</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.312204670903</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.349687730491</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D5" t="n">
-        <v>1388.349687730491</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>1002.561435132247</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.220558942349</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2311.157671598778</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1958.389016328664</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.312204670903</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1157.367208492925</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C8" t="n">
-        <v>1157.367208492925</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D8" t="n">
-        <v>799.1015098861748</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>799.1015098861748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2604.803841343502</v>
+        <v>2293.650530738124</v>
       </c>
       <c r="V8" t="n">
-        <v>2273.740953999931</v>
+        <v>1962.587643394554</v>
       </c>
       <c r="W8" t="n">
-        <v>1920.972298729817</v>
+        <v>1609.81898812444</v>
       </c>
       <c r="X8" t="n">
-        <v>1547.506540468737</v>
+        <v>1609.81898812444</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.367208492925</v>
+        <v>1219.679656148628</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1630.986012901828</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>1630.986012901828</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1272.720314295078</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>886.9320616968334</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2391.05161122703</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2017.58585296595</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2017.58585296595</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>540.649797448123</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1181.195146915227</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1854.400839168009</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2403.836847920731</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245969</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>267.3675792286643</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717208</v>
+        <v>1916.217283289125</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1547.254766348713</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1188.989067741963</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785522</v>
+        <v>803.2008151437186</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889447</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036443</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791251</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018221</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018221</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018221</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018221</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018221</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018221</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018221</v>
+        <v>3066.422213590138</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757142</v>
+        <v>2692.956455329058</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.54400078133</v>
+        <v>2302.817123353247</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615926</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036443</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036443</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036443</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036443</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036443</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866325</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477909</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594899</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>728.128984206434</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.128984206434</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>728.128984206434</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>848.2972798983277</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036443</v>
+        <v>848.2972798983277</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036443</v>
+        <v>848.2972798983277</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036443</v>
+        <v>558.8801098613671</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036443</v>
+        <v>330.8905589633498</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036443</v>
+        <v>220.8817426245309</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2452.998035652587</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.035518712175</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1725.769820105425</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.981567507181</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>928.9956627175731</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540005</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>193.68476572651</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403563</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604008</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.82110106091</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.35534279983</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2839.597875716709</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662049</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>141.5996147899769</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>645.9611546560947</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.506504123198</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.71219637598</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>2509.148205128702</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365674</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662049</v>
+        <v>618.0053231677515</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662049</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662049</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662049</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662049</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662049</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230478</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422853</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783891</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669875</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>943.448515305365</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>736.0082305577704</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>510.3790338701353</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>476.4328391003903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>476.4328391003903</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>476.4328391003903</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X19" t="n">
-        <v>476.4328391003903</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y19" t="n">
-        <v>255.6402599568602</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196.616170759897</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.653653819485</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1469.387955212735</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.599702614491</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>672.6137978248832</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>255.5260160613107</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3346.821101060911</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>2973.355342799831</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2583.216010824019</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835158</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893251</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620961</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3445.057970596938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C22" t="n">
-        <v>3445.057970596938</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="D22" t="n">
-        <v>3294.941331184602</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="E22" t="n">
-        <v>3147.028237602209</v>
+        <v>214.5484417603318</v>
       </c>
       <c r="F22" t="n">
-        <v>3147.028237602209</v>
+        <v>214.5484417603318</v>
       </c>
       <c r="G22" t="n">
-        <v>2978.421392597592</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>2824.166749497357</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871683</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467292</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.53599936811</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087348</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.72386031205</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331025</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>3652.498255344532</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>3445.057970596938</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>3445.057970596938</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>3445.057970596938</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>3445.057970596938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>3445.057970596938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X22" t="n">
-        <v>3445.057970596938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y22" t="n">
-        <v>3445.057970596938</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3941.295339356063</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C25" t="n">
-        <v>3772.359156428156</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>3622.242517015821</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>3474.329423433428</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.736383329833</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y25" t="n">
-        <v>4122.943804186303</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6232,13 +6232,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>498.9056400965593</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4703.441852209007</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4475.45230131099</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>4254.65972216746</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632138</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D31" t="n">
-        <v>822.148054050878</v>
+        <v>325.6474381353784</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684849</v>
+        <v>177.7343445529852</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>177.7343445529852</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W31" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X31" t="n">
-        <v>1244.231782352015</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1244.231782352015</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="32">
@@ -6694,31 +6694,31 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4317.041446021964</v>
+        <v>849.6126242577293</v>
       </c>
       <c r="W34" t="n">
-        <v>4027.624275985003</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X34" t="n">
-        <v>3799.634725086986</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y34" t="n">
-        <v>3578.842145943456</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4391.604587469458</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C37" t="n">
-        <v>4222.668404541551</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D37" t="n">
-        <v>4072.551765129215</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546822</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>4794.045631443228</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y37" t="n">
-        <v>4573.253052299698</v>
+        <v>914.3081629330617</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324571</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324571</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324571</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324571</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324571</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C43" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D43" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>122.2963999168133</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516231</v>
+        <v>48.10560617264085</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928724</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="P18" t="n">
-        <v>15.92129162593302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617264085</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>208.4912774587715</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66.90748812322909</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,16 +22603,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>357.3820359929614</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>196.8449207531744</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>159.8023703303161</v>
+        <v>242.6246259976217</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>35.60210680630689</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01837628787189</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>27.14262709107146</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049790053</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>301.3121460963707</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853703</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787209</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>109.675925176664</v>
       </c>
     </row>
     <row r="17">
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.8180462437635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,28 +23892,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>113.209475836396</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>252.6539218360495</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>50.33553166633209</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.55259569116384</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3987588013468</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>196.6145218765363</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.6844047393588</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.83138328065161</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>86.78148790160517</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>212.5829775386709</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>69.86853300361584</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.9521741567362</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>120.6047272882281</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>50.96659166316002</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743855.5326798136</v>
+        <v>859587.3690997222</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>743855.5326798136</v>
+        <v>859587.3690997222</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859587.3690997222</v>
+        <v>986536.9482191138</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859587.3690997221</v>
+        <v>986536.9482191135</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>986536.9482191138</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>986536.9482191136</v>
+        <v>986536.9482191138</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>986536.9482191136</v>
+        <v>986536.9482191135</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>986536.9482191135</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165453</v>
+        <v>354622.4384779895</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165453</v>
+        <v>354622.4384779895</v>
       </c>
       <c r="G2" t="n">
-        <v>354622.4384779895</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>354622.4384779895</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245944</v>
@@ -26343,13 +26343,13 @@
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="M2" t="n">
         <v>410580.5127245943</v>
       </c>
-      <c r="M2" t="n">
-        <v>410580.5127245944</v>
-      </c>
       <c r="N2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="O2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.652000455</v>
+        <v>263762.8892659104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>62453.05588965289</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704779</v>
+        <v>69864.88484991125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>35944.74664026682</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="F4" t="n">
-        <v>35944.74664026683</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="G4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26453,10 +26453,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340945</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360135</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-405161.4634016755</v>
+        <v>-411229.8771474944</v>
       </c>
       <c r="C6" t="n">
-        <v>184806.4158128691</v>
+        <v>178738.0020670498</v>
       </c>
       <c r="D6" t="n">
-        <v>184806.4158128691</v>
+        <v>178738.0020670498</v>
       </c>
       <c r="E6" t="n">
-        <v>218434.0158128691</v>
+        <v>890.3260072184457</v>
       </c>
       <c r="F6" t="n">
-        <v>218434.015812869</v>
+        <v>249037.0946260609</v>
       </c>
       <c r="G6" t="n">
-        <v>16258.70408754698</v>
+        <v>24552.16069794331</v>
       </c>
       <c r="H6" t="n">
-        <v>252676.3560880019</v>
+        <v>288315.0499638537</v>
       </c>
       <c r="I6" t="n">
-        <v>33757.48162447619</v>
+        <v>288315.0499638538</v>
       </c>
       <c r="J6" t="n">
-        <v>112866.4220309824</v>
+        <v>111891.8307712607</v>
       </c>
       <c r="K6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638537</v>
       </c>
       <c r="L6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638536</v>
       </c>
       <c r="M6" t="n">
-        <v>289289.6412235755</v>
+        <v>225861.9940742009</v>
       </c>
       <c r="N6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638536</v>
       </c>
       <c r="O6" t="n">
-        <v>228980.0540865276</v>
+        <v>218450.1651139425</v>
       </c>
       <c r="P6" t="n">
-        <v>289289.6412235754</v>
+        <v>288315.0499638537</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170864</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380634</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26767,10 +26767,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545554</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827561</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.732436120977</v>
+        <v>236.9063051160367</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282008</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>250.6101663282005</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>290.3162041708168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>250.6101663282005</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282008</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554463</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081576</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630668</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405366</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338302</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119864</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954665</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044136</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633791</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>34.6043567772738</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473549</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141104</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188909</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890687</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396472</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478006</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736699</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479576</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639064</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034978</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372663</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078606</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644438</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492003</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813575</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302234</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246923</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666593</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175838</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383795</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678004</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701162</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197222</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198243</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651535</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779012</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971252</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074812</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359658</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822507</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426691</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457569</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810501</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512814</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900643</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947068</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080781</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308302</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>9.51507583820699</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784121</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490358</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441086</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104756</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937804</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522781</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>138.6157555714072</v>
       </c>
       <c r="M12" t="n">
-        <v>486.0228424856235</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>232.0839024696397</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343418</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>421.53613944353</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060963</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492235</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>406.563508753045</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116796</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898688</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770686</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713856</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279169</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.811094813734</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713948</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3708461458879</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873144</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040854</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517152</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>638.098798973041</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233093</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588822</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312121</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268327</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748664</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>647.015504512226</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>356.012295623815</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7087941787594</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472374</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353173</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584801</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452619</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>353.881855992819</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1078665.510602064</v>
+        <v>1102775.080959675</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>1737911.484358932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855585</v>
+        <v>4541732.1730751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10485671.71985244</v>
+        <v>10079185.08320224</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.2425642047091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>163.9212344859759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.233682100289</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>54.37924675511485</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>86.51421661441728</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>8.599541510667596</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>1.999661849415848</v>
       </c>
       <c r="F11" t="n">
-        <v>371.2739389354045</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664349</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958679</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183532</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>1.264003285459112</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.4420262610233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>253.5227322708678</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>47.92882262104235</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>82.27111068693193</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9087281754308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>206.6496618758914</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>54.03734526223181</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.52124970645312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>182.7723585977134</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>116.1580367970455</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>225.5650375952926</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>207.9296784859477</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.97013147555854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>22.58147825544498</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>79.71208056177241</v>
+        <v>46.18719652447324</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>135.0256963802047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>49.12199829633348</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>92.05936778353028</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.001675813423877</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>78.74694001459652</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.88884117514944</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>105.6864005999555</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>51.18259951884368</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>235.2707607354173</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.543397017427</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2257.90872998949</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2257.90872998949</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2257.90872998949</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.090004781549</v>
+        <v>1905.140074719376</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.923258067584</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.960741127172</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="D5" t="n">
-        <v>857.6950425204218</v>
+        <v>930.7521172616389</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>930.7521172616389</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>519.7662124720314</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>519.7662124720314</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.220558942349</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.157671598778</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.389016328664</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.923258067584</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.923258067584</v>
+        <v>1289.017815868389</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4764,13 +4764,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1219.679656148628</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C8" t="n">
-        <v>850.7171392082162</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082162</v>
+        <v>527.1193320089292</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>141.3310794106849</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>141.3310794106849</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>141.3310794106849</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2293.650530738124</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1962.587643394554</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.81898812444</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1609.81898812444</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1219.679656148628</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.986012901828</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.986012901828</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.720314295078</v>
+        <v>801.1213703401302</v>
       </c>
       <c r="E11" t="n">
-        <v>886.9320616968334</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F11" t="n">
-        <v>511.9078809540005</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>193.68476572651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403566</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604013</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.9120654066</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827853</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>3328.574857095564</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>3074.883153840715</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.820266497144</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.05161122703</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X11" t="n">
-        <v>2017.58585296595</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y11" t="n">
-        <v>2017.58585296595</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662049</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324298</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>540.649797448123</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1181.195146915227</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.400839168009</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2403.836847920731</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.99179512662049</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662049</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662049</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662049</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222299</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230478</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422853</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783891</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669875</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>784.7743001636422</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>784.7743001636422</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>495.3571301266816</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X13" t="n">
-        <v>267.3675792286643</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.99179512662049</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1916.217283289125</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C14" t="n">
-        <v>1547.254766348713</v>
+        <v>1023.009522332977</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.989067741963</v>
+        <v>1023.009522332977</v>
       </c>
       <c r="E14" t="n">
-        <v>803.2008151437186</v>
+        <v>637.2212697347331</v>
       </c>
       <c r="F14" t="n">
-        <v>392.2149103541111</v>
+        <v>637.2212697347331</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>3445.898053076176</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>3114.835165732605</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W14" t="n">
-        <v>3066.422213590138</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X14" t="n">
-        <v>2692.956455329058</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y14" t="n">
-        <v>2302.817123353247</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>220.8817426245309</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>220.8817426245309</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>220.8817426245309</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E16" t="n">
-        <v>220.8817426245309</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>431.1223972961881</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>848.2972798983277</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>848.2972798983277</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>848.2972798983277</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>558.8801098613671</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>330.8905589633498</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8817426245309</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>1002.94122423782</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>618.0053231677515</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>495.3571301266819</v>
       </c>
       <c r="X19" t="n">
-        <v>1020.446367141521</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="Y19" t="n">
-        <v>799.6537879979912</v>
+        <v>267.3675792286645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>1455.646542658307</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1086.684025717895</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1086.684025717895</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>3289.683015573005</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>2958.620128229434</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>2605.85147295932</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>2232.38571469824</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>1842.246382722428</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706318</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C22" t="n">
-        <v>362.4615353427249</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D22" t="n">
-        <v>362.4615353427249</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E22" t="n">
-        <v>214.5484417603318</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F22" t="n">
-        <v>214.5484417603318</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706318</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706318</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,13 +6074,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890052</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.2416896507652</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765186</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X25" t="n">
-        <v>786.0822064765186</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y25" t="n">
-        <v>763.890154481005</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6232,13 +6232,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>852.117539127393</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>644.700260475621</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C31" t="n">
-        <v>475.7640775477141</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D31" t="n">
-        <v>325.6474381353784</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E31" t="n">
-        <v>177.7343445529852</v>
+        <v>143.8708253233901</v>
       </c>
       <c r="F31" t="n">
-        <v>177.7343445529852</v>
+        <v>143.8708253233901</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6654,19 +6654,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.130855347408</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.141304449391</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>826.3487253058607</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6715,7 +6715,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.1954542207687</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>849.6126242577293</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>560.1954542207687</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X34" t="n">
-        <v>560.1954542207687</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.1954542207687</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,19 +7022,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.6596981028219</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C37" t="n">
-        <v>563.7235151749151</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1405.927010170498</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1405.927010170498</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y37" t="n">
-        <v>914.3081629330617</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.6725486937866</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C40" t="n">
-        <v>324.6725486937866</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>955.1031435655738</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>727.1135926675564</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.3210135240263</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>441.900558318119</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C43" t="n">
-        <v>441.900558318119</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>441.900558318119</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>293.9874647357258</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>293.9874647357258</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X43" t="n">
-        <v>441.900558318119</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y43" t="n">
-        <v>441.900558318119</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.48362228133</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7991340754431</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>493.3819640384826</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928724</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>122.2963999168133</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>347.1032070028299</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>48.10560617264085</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6241510367947</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208.4912774587715</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>10.4944783229956</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.19271039829675</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,10 +22761,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>14.68909066406815</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>196.8449207531744</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>237.4085561499399</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>242.6246259976217</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>379.9307082228459</v>
       </c>
       <c r="F11" t="n">
-        <v>35.60210680630689</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6958418817692</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677915</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>285.2589950511319</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.14262709107146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>160.2614377499272</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>301.3121460963707</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>85.03869157211898</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.675925176664</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>148.0333797447915</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>113.209475836396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>120.8997983164781</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>199.1580114745484</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>50.33553166633209</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>60.69561706280436</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>13.61788257244154</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.6145218765363</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.556165068383</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>86.78148790160517</v>
+        <v>120.3063719389043</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>117.1119469436233</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>129.488193274859</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.5829775386709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>69.86853300361584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>196.3876396860913</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.6047272882281</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>146.4512427238725</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>97.43287349936867</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>50.96659166316002</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859587.3690997222</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859587.3690997222</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>986536.9482191138</v>
+        <v>859587.3690997222</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>986536.9482191135</v>
+        <v>859587.3690997224</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>986536.9482191136</v>
+        <v>986536.9482191138</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>986536.9482191136</v>
+        <v>986536.9482191135</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
-        <v>354622.4384779895</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="F2" t="n">
-        <v>354622.4384779895</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="G2" t="n">
+        <v>354622.4384779896</v>
+      </c>
+      <c r="H2" t="n">
+        <v>354622.4384779896</v>
+      </c>
+      <c r="I2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="I2" t="n">
-        <v>410580.5127245944</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
@@ -26343,7 +26343,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="M2" t="n">
         <v>410580.5127245943</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188425</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>236417.6520004549</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990993</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965289</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>60309.58713704782</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
+        <v>35944.74664026682</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35944.74664026682</v>
+      </c>
+      <c r="G4" t="n">
         <v>32774.53910638623</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>32774.53910638623</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360135</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
         <v>69171.54328360136</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
+        <v>69171.54328360138</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-411229.8771474944</v>
+        <v>-405768.3047762572</v>
       </c>
       <c r="C6" t="n">
-        <v>178738.0020670498</v>
+        <v>184199.5744382873</v>
       </c>
       <c r="D6" t="n">
-        <v>178738.0020670498</v>
+        <v>184199.5744382873</v>
       </c>
       <c r="E6" t="n">
-        <v>890.3260072184457</v>
+        <v>217827.1744382873</v>
       </c>
       <c r="F6" t="n">
-        <v>249037.0946260609</v>
+        <v>217827.1744382874</v>
       </c>
       <c r="G6" t="n">
-        <v>24552.16069794331</v>
+        <v>15894.77794135308</v>
       </c>
       <c r="H6" t="n">
-        <v>288315.0499638537</v>
+        <v>252312.4299418078</v>
       </c>
       <c r="I6" t="n">
-        <v>288315.0499638538</v>
+        <v>33660.02249850392</v>
       </c>
       <c r="J6" t="n">
-        <v>111891.8307712607</v>
+        <v>112768.9629050102</v>
       </c>
       <c r="K6" t="n">
-        <v>288315.0499638537</v>
+        <v>289192.1820976032</v>
       </c>
       <c r="L6" t="n">
-        <v>288315.0499638536</v>
+        <v>289192.1820976032</v>
       </c>
       <c r="M6" t="n">
-        <v>225861.9940742009</v>
+        <v>289192.1820976032</v>
       </c>
       <c r="N6" t="n">
-        <v>288315.0499638536</v>
+        <v>289192.182097603</v>
       </c>
       <c r="O6" t="n">
-        <v>218450.1651139425</v>
+        <v>228882.5949605553</v>
       </c>
       <c r="P6" t="n">
-        <v>288315.0499638537</v>
+        <v>289192.1820976032</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380634</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="G3" t="n">
         <v>593.4761003380635</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
         <v>924.8974390827563</v>
       </c>
-      <c r="G4" t="n">
-        <v>1215.213643253573</v>
-      </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209767</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>215.7324361209769</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282005</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708164</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198243</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651535</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779012</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971252</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074812</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359658</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822507</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426691</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457569</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810501</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916531</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512814</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900643</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947068</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080781</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308302</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>9.51507583820699</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784121</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790237</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441086</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104756</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937804</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522781</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.545352539127</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040854</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517152</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>638.098798973041</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233093</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588822</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312121</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714072</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>647.015504512226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>232.0839024696397</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472374</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.699994849311</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233372</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369851</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353173</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348671</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>485.7189625742372</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O18" t="n">
-        <v>356.012295623815</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>353.881855992819</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
